--- a/data/trans_orig/P22$ss-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22$ss-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D3B9F1-39F9-4672-BFEC-A386B5188164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513BC7F1-75B4-42DB-B954-BA634F467F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0FA90A-9EB4-4290-942E-67FD33466D92}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{188119F2-ADFF-4B8E-945A-23DB31CC05A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="850">
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="874">
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1151,10 +1151,97 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>94,01%</t>
@@ -1196,9 +1283,6 @@
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
     <t>5,75%</t>
   </si>
   <si>
@@ -1310,1285 +1394,1273 @@
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>7,91%</t>
+  </si>
+  <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2016</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2023</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
   </si>
 </sst>
 </file>
@@ -3000,7 +3072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205A3F-8322-42D9-A8E0-E344E3D9BE7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCE23C-821D-4AFD-9418-F66491668C2C}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5203,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CBDA1-4CC7-41F8-AF7A-1EF80E440A0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B7C4A9-9D2A-448B-8361-B5AA2DB8E816}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5291,31 +5363,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>371</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5324,31 +5396,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>371</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>371</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5357,31 +5429,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5390,31 +5462,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5423,31 +5495,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5456,31 +5528,31 @@
         <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5489,31 +5561,31 @@
         <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5524,31 +5596,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5557,13 +5629,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -5572,16 +5644,16 @@
         <v>176</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5596,10 +5668,10 @@
         <v>385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>87</v>
@@ -5608,13 +5680,13 @@
         <v>318</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5629,25 +5701,25 @@
         <v>262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5662,7 +5734,7 @@
         <v>287</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>106</v>
@@ -5674,13 +5746,13 @@
         <v>281</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5704,7 +5776,7 @@
         <v>59</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>23</v>
@@ -5728,7 +5800,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
@@ -5737,7 +5809,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>289</v>
@@ -5757,31 +5829,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>256</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5793,28 +5865,28 @@
         <v>275</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5823,7 +5895,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>23</v>
@@ -5838,7 +5910,7 @@
         <v>59</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>270</v>
@@ -5847,7 +5919,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5856,22 +5928,22 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>136</v>
@@ -5895,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>176</v>
@@ -5904,13 +5976,13 @@
         <v>23</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>121</v>
@@ -5928,7 +6000,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>23</v>
@@ -5937,7 +6009,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>23</v>
@@ -5961,7 +6033,7 @@
         <v>59</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>23</v>
@@ -5970,7 +6042,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>23</v>
@@ -5990,31 +6062,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6023,31 +6095,31 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6056,31 +6128,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>440</v>
+        <v>87</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>441</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>122</v>
+        <v>384</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6089,31 +6161,31 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6122,31 +6194,31 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6155,13 +6227,13 @@
         <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>23</v>
@@ -6170,16 +6242,16 @@
         <v>59</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>367</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6194,25 +6266,25 @@
         <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>423</v>
+        <v>23</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6223,19 +6295,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>112</v>
@@ -6244,10 +6316,10 @@
         <v>258</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6262,7 +6334,7 @@
         <v>179</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>271</v>
@@ -6271,7 +6343,7 @@
         <v>23</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>251</v>
@@ -6304,7 +6376,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>329</v>
@@ -6322,31 +6394,31 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>316</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6355,31 +6427,31 @@
         <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>264</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>329</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6403,7 +6475,7 @@
         <v>23</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>126</v>
@@ -6459,28 +6531,28 @@
         <v>296</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6489,31 +6561,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>286</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>84</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6528,7 +6600,7 @@
         <v>248</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>23</v>
@@ -6555,31 +6627,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>248</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6594,7 +6666,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>123</v>
@@ -6612,7 +6684,7 @@
         <v>368</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6627,7 +6699,7 @@
         <v>59</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
@@ -6660,10 +6732,10 @@
         <v>59</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>33</v>
@@ -6672,7 +6744,7 @@
         <v>342</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>54</v>
@@ -6689,28 +6761,28 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>259</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>66</v>
@@ -6722,13 +6794,13 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>309</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>177</v>
@@ -6737,13 +6809,13 @@
         <v>57</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>122</v>
@@ -6761,7 +6833,7 @@
         <v>286</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>26</v>
@@ -6773,7 +6845,7 @@
         <v>278</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>247</v>
@@ -6788,7 +6860,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>32</v>
@@ -6797,22 +6869,22 @@
         <v>317</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>283</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -6821,13 +6893,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>285</v>
@@ -6845,7 +6917,7 @@
         <v>285</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>514</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6878,7 +6950,7 @@
         <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6922,19 +6994,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>150</v>
@@ -6946,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -6955,13 +7027,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>141</v>
@@ -6970,16 +7042,16 @@
         <v>242</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>274</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -6988,31 +7060,31 @@
         <v>28</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -7021,31 +7093,31 @@
         <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -7060,7 +7132,7 @@
         <v>105</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>172</v>
@@ -7072,13 +7144,13 @@
         <v>223</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>172</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -7093,7 +7165,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>23</v>
@@ -7111,7 +7183,7 @@
         <v>23</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -7135,10 +7207,10 @@
         <v>23</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>23</v>
@@ -7155,31 +7227,31 @@
         <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>338</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -7200,7 +7272,7 @@
         <v>80</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>246</v>
@@ -7209,10 +7281,10 @@
         <v>50</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -7221,10 +7293,10 @@
         <v>28</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>219</v>
@@ -7233,13 +7305,13 @@
         <v>323</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>272</v>
@@ -7257,28 +7329,28 @@
         <v>165</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>347</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>230</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>549</v>
+        <v>388</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>278</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -7293,7 +7365,7 @@
         <v>330</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>33</v>
@@ -7311,7 +7383,7 @@
         <v>367</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -7320,7 +7392,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>365</v>
@@ -7329,7 +7401,7 @@
         <v>270</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>23</v>
@@ -7338,10 +7410,10 @@
         <v>99</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>54</v>
@@ -7353,7 +7425,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>23</v>
@@ -7365,7 +7437,7 @@
         <v>243</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>176</v>
@@ -7406,7 +7478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31723460-7C7B-47E2-8FF7-F44C1761EFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB8482-F33D-408B-BB9A-6E412A823B3F}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7423,7 +7495,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7494,31 +7566,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7527,7 +7599,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>23</v>
@@ -7536,7 +7608,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>358</v>
@@ -7551,7 +7623,7 @@
         <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7569,7 +7641,7 @@
         <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>243</v>
@@ -7581,10 +7653,10 @@
         <v>117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7593,31 +7665,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>569</v>
+        <v>391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>357</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>573</v>
+        <v>386</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7632,7 +7704,7 @@
         <v>140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>33</v>
@@ -7641,7 +7713,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>576</v>
+        <v>383</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>160</v>
@@ -7674,7 +7746,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>364</v>
@@ -7707,7 +7779,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>54</v>
@@ -7727,31 +7799,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7760,13 +7832,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>586</v>
+        <v>397</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>60</v>
@@ -7775,7 +7847,7 @@
         <v>99</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>53</v>
@@ -7817,7 +7889,7 @@
         <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7826,7 +7898,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>104</v>
@@ -7841,7 +7913,7 @@
         <v>360</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>351</v>
@@ -7850,7 +7922,7 @@
         <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>590</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7865,7 +7937,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>23</v>
@@ -7874,7 +7946,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>23</v>
@@ -7898,7 +7970,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>364</v>
@@ -7907,10 +7979,10 @@
         <v>23</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>23</v>
@@ -7931,7 +8003,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
@@ -7940,7 +8012,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>23</v>
@@ -7960,28 +8032,28 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>592</v>
+        <v>454</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>340</v>
@@ -7996,10 +8068,10 @@
         <v>174</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>330</v>
@@ -8026,7 +8098,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>590</v>
+        <v>466</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>350</v>
@@ -8035,13 +8107,13 @@
         <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>172</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>164</v>
@@ -8074,13 +8146,13 @@
         <v>176</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>586</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>357</v>
@@ -8098,16 +8170,16 @@
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>586</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>172</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>51</v>
@@ -8116,7 +8188,7 @@
         <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8193,31 +8265,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>153</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8226,13 +8298,13 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>358</v>
@@ -8241,7 +8313,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>268</v>
@@ -8262,7 +8334,7 @@
         <v>351</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>275</v>
@@ -8277,13 +8349,13 @@
         <v>31</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>211</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8295,28 +8367,28 @@
         <v>312</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>435</v>
+        <v>622</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8328,10 +8400,10 @@
         <v>127</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>221</v>
@@ -8343,13 +8415,13 @@
         <v>307</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8358,13 +8430,13 @@
         <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>23</v>
@@ -8376,13 +8448,13 @@
         <v>102</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8426,31 +8498,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8465,7 +8537,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>104</v>
@@ -8474,7 +8546,7 @@
         <v>23</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>179</v>
@@ -8492,25 +8564,25 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>133</v>
@@ -8525,7 +8597,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>23</v>
@@ -8540,7 +8612,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>60</v>
@@ -8573,7 +8645,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>364</v>
@@ -8597,7 +8669,7 @@
         <v>23</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>287</v>
@@ -8615,7 +8687,7 @@
         <v>23</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8659,31 +8731,31 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8692,31 +8764,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>590</v>
+        <v>466</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>640</v>
+        <v>381</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>641</v>
+        <v>380</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8740,7 +8812,7 @@
         <v>59</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>23</v>
@@ -8758,25 +8830,25 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>287</v>
@@ -8839,7 +8911,7 @@
         <v>59</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>23</v>
@@ -8872,7 +8944,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>99</v>
@@ -8892,31 +8964,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -8931,10 +9003,10 @@
         <v>281</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>218</v>
@@ -8943,7 +9015,7 @@
         <v>341</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>175</v>
@@ -8961,28 +9033,28 @@
         <v>119</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>308</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -8991,31 +9063,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>215</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9030,13 +9102,13 @@
         <v>23</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>288</v>
@@ -9045,10 +9117,10 @@
         <v>280</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -9063,7 +9135,7 @@
         <v>23</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>23</v>
@@ -9081,7 +9153,7 @@
         <v>23</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -9105,7 +9177,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>364</v>
@@ -9125,31 +9197,31 @@
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -9158,13 +9230,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>385</v>
@@ -9179,7 +9251,7 @@
         <v>246</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>345</v>
@@ -9200,22 +9272,22 @@
         <v>310</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -9224,31 +9296,31 @@
         <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -9272,16 +9344,16 @@
         <v>23</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -9308,7 +9380,7 @@
         <v>327</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>23</v>
@@ -9329,7 +9401,7 @@
         <v>23</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>331</v>
@@ -9358,31 +9430,31 @@
         <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -9391,16 +9463,16 @@
         <v>18</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>223</v>
@@ -9430,7 +9502,7 @@
         <v>222</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>348</v>
@@ -9439,16 +9511,16 @@
         <v>288</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -9466,22 +9538,22 @@
         <v>344</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>435</v>
+        <v>622</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>573</v>
+        <v>386</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>444</v>
+        <v>703</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -9526,7 +9598,7 @@
         <v>106</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>221</v>
@@ -9535,7 +9607,7 @@
         <v>366</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>128</v>
@@ -9559,22 +9631,22 @@
         <v>366</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>126</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>365</v>
@@ -9609,7 +9681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29E56-632D-4DE6-8631-E100D39857C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E7454-B80F-42FB-8963-52960F01B569}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9626,7 +9698,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9697,31 +9769,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>693</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>703</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -9730,31 +9802,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>474</v>
+        <v>714</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>705</v>
+        <v>464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>621</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>524</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>707</v>
+        <v>380</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9763,31 +9835,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>709</v>
+        <v>516</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>710</v>
+        <v>551</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>711</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>718</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>103</v>
+        <v>542</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9796,31 +9868,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>384</v>
+        <v>721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -9829,31 +9901,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>171</v>
+        <v>729</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>570</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>721</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -9930,31 +10002,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>734</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>727</v>
+        <v>521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>736</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -9963,31 +10035,31 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>303</v>
+        <v>738</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>91</v>
+        <v>496</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>740</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>531</v>
+        <v>345</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>730</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>193</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -9996,31 +10068,31 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>536</v>
+        <v>160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>731</v>
+        <v>471</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>120</v>
+        <v>743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -10029,31 +10101,31 @@
         <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>610</v>
+        <v>746</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>734</v>
+        <v>154</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>735</v>
+        <v>79</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>747</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -10062,13 +10134,13 @@
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>553</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>567</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>128</v>
@@ -10077,16 +10149,16 @@
         <v>23</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>536</v>
+        <v>428</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>496</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -10128,13 +10200,13 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>736</v>
+        <v>175</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>178</v>
+        <v>630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>329</v>
@@ -10143,16 +10215,16 @@
         <v>328</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>737</v>
+        <v>22</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -10163,31 +10235,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>405</v>
+        <v>752</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>754</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -10196,31 +10268,31 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>761</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>760</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>737</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -10229,31 +10301,31 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>167</v>
+        <v>763</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>746</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>92</v>
+        <v>740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>674</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -10262,31 +10334,31 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>390</v>
+        <v>765</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>747</v>
+        <v>73</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>439</v>
+        <v>770</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>752</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>198</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -10295,13 +10367,13 @@
         <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>763</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>250</v>
@@ -10313,13 +10385,13 @@
         <v>80</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -10367,16 +10439,16 @@
         <v>23</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>753</v>
+        <v>124</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>280</v>
@@ -10385,7 +10457,7 @@
         <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -10396,31 +10468,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>754</v>
+        <v>377</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>758</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>454</v>
+        <v>775</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>759</v>
+        <v>338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -10429,31 +10501,31 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>762</v>
+        <v>385</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>499</v>
+        <v>760</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>778</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>662</v>
+        <v>516</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -10462,31 +10534,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>765</v>
+        <v>391</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>395</v>
+        <v>781</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>508</v>
+        <v>782</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>654</v>
+        <v>155</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -10495,31 +10567,31 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>768</v>
+        <v>116</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>316</v>
+        <v>787</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>771</v>
+        <v>207</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>772</v>
+        <v>666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>781</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -10528,31 +10600,31 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -10603,22 +10675,22 @@
         <v>49</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>365</v>
+        <v>571</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -10629,31 +10701,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>599</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>454</v>
+        <v>792</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>793</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -10662,31 +10734,31 @@
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>116</v>
+        <v>796</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>736</v>
+        <v>121</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>781</v>
+        <v>170</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>325</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -10695,31 +10767,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>782</v>
+        <v>51</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>783</v>
+        <v>654</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>272</v>
+        <v>750</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -10728,31 +10800,31 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>391</v>
+        <v>567</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>641</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>156</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -10761,13 +10833,13 @@
         <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>417</v>
+        <v>612</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>23</v>
@@ -10785,7 +10857,7 @@
         <v>23</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -10800,7 +10872,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>106</v>
@@ -10809,16 +10881,16 @@
         <v>23</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>535</v>
+        <v>226</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>60</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -10833,7 +10905,7 @@
         <v>59</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>54</v>
@@ -10842,16 +10914,16 @@
         <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -10862,31 +10934,31 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>790</v>
+        <v>504</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>605</v>
+        <v>805</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>108</v>
+        <v>808</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -10895,31 +10967,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>262</v>
+        <v>612</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>342</v>
+        <v>161</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>438</v>
+        <v>273</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -10928,31 +11000,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>55</v>
+        <v>469</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>801</v>
+        <v>49</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>674</v>
+        <v>565</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>587</v>
+        <v>450</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>803</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -10961,31 +11033,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>326</v>
+        <v>815</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>341</v>
+        <v>816</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>317</v>
+        <v>819</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>807</v>
+        <v>417</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>461</v>
+        <v>821</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>729</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -11000,7 +11072,7 @@
         <v>59</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>229</v>
@@ -11018,7 +11090,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -11033,7 +11105,7 @@
         <v>59</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
@@ -11051,7 +11123,7 @@
         <v>59</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -11066,7 +11138,7 @@
         <v>59</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>23</v>
@@ -11084,7 +11156,7 @@
         <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -11095,31 +11167,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>808</v>
+        <v>558</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>810</v>
+        <v>261</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>702</v>
+        <v>824</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>780</v>
+        <v>826</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>483</v>
+        <v>299</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>429</v>
+        <v>825</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>291</v>
+        <v>827</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -11128,31 +11200,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>77</v>
+        <v>672</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>812</v>
+        <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>544</v>
+        <v>92</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>246</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -11161,31 +11233,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>814</v>
+        <v>398</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>528</v>
+        <v>138</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>730</v>
+        <v>564</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>816</v>
+        <v>439</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>413</v>
+        <v>747</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>279</v>
+        <v>832</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -11194,31 +11266,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>824</v>
+        <v>394</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -11227,31 +11299,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>444</v>
+        <v>685</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>705</v>
+        <v>461</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>116</v>
+        <v>841</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>300</v>
+        <v>514</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>218</v>
+        <v>425</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>784</v>
+        <v>395</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>550</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -11266,25 +11338,25 @@
         <v>23</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>553</v>
+        <v>705</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -11293,31 +11365,31 @@
         <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>826</v>
+        <v>553</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>521</v>
+        <v>367</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>394</v>
+        <v>565</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>553</v>
+        <v>705</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -11328,31 +11400,31 @@
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>827</v>
+        <v>751</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>622</v>
+        <v>477</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>113</v>
+        <v>845</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>670</v>
+        <v>847</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -11361,31 +11433,31 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>832</v>
+        <v>516</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>640</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>814</v>
+        <v>398</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>348</v>
+        <v>740</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>251</v>
+        <v>428</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -11394,31 +11466,31 @@
         <v>28</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>251</v>
+        <v>851</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>610</v>
+        <v>216</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>359</v>
+        <v>852</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>353</v>
+        <v>528</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>127</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -11427,31 +11499,31 @@
         <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>489</v>
+        <v>359</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>834</v>
+        <v>462</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>765</v>
+        <v>353</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>837</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -11460,31 +11532,31 @@
         <v>48</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>799</v>
+        <v>26</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>49</v>
+        <v>583</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>270</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>453</v>
+        <v>857</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>782</v>
+        <v>583</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -11493,31 +11565,31 @@
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>555</v>
+        <v>858</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>801</v>
+        <v>517</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>621</v>
+        <v>470</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>619</v>
+        <v>322</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -11535,22 +11607,22 @@
         <v>327</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>695</v>
+        <v>366</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>362</v>
+        <v>224</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -11561,31 +11633,31 @@
         <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>672</v>
+        <v>859</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>483</v>
+        <v>859</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>741</v>
+        <v>862</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>340</v>
+        <v>864</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>237</v>
+        <v>865</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -11594,31 +11666,31 @@
         <v>18</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>842</v>
+        <v>437</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>730</v>
+        <v>385</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>843</v>
+        <v>356</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>352</v>
+        <v>563</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>29</v>
+        <v>552</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>409</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -11627,31 +11699,31 @@
         <v>28</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>692</v>
+        <v>513</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>705</v>
+        <v>529</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>844</v>
+        <v>341</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>478</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>174</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -11660,31 +11732,31 @@
         <v>38</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>845</v>
+        <v>484</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>389</v>
+        <v>867</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>847</v>
+        <v>639</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>615</v>
+        <v>869</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>766</v>
+        <v>870</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>195</v>
+        <v>872</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -11693,31 +11765,31 @@
         <v>48</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>566</v>
+        <v>425</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>619</v>
+        <v>280</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>523</v>
+        <v>137</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>736</v>
+        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -11726,31 +11798,31 @@
         <v>56</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>695</v>
+        <v>289</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>172</v>
+        <v>631</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>289</v>
+        <v>555</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -11759,7 +11831,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>331</v>
@@ -11768,22 +11840,22 @@
         <v>358</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>849</v>
+        <v>692</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
